--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -635,11 +635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-534413328"/>
-        <c:axId val="-534411152"/>
+        <c:axId val="-47848128"/>
+        <c:axId val="-47835072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-534413328"/>
+        <c:axId val="-47848128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-534411152"/>
+        <c:crossAx val="-47835072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -747,7 +747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-534411152"/>
+        <c:axId val="-47835072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +854,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-534413328"/>
+        <c:crossAx val="-47848128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,7 +944,472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.34350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34542857142857147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.361375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35288888888888892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34409999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37545454545454543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36041666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35038461538461535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39564285714285713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.391125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38258823529411762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37163157894736842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38104761904761908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38209090909090909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37669565217391304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3882916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38375999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.37992307692307692</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38418518518518519</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36592857142857144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39620689655172414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39143333333333336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.37732258064516128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-23075456"/>
+        <c:axId val="-23069472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-23075456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>实验次数</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-23069472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-23069472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间（秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-23075456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1500,20 +1965,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202956</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>79496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>351693</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>79497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1527,6 +2508,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1826,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1841,7 +2852,7 @@
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +2866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1880,8 +2891,16 @@
         <f>E2/1000</f>
         <v>9.9440000000000008</v>
       </c>
+      <c r="H2">
+        <f>F2/B2</f>
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="I2">
+        <f>G2/B2</f>
+        <v>9.9440000000000008</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1906,8 +2925,16 @@
         <f t="shared" ref="G3:G32" si="2">E3/1000</f>
         <v>0.68700000000000006</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H32" si="3">F3/B3</f>
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I32" si="4">G3/B3</f>
+        <v>0.34350000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1932,8 +2959,16 @@
         <f t="shared" si="2"/>
         <v>0.96899999999999997</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>4.4446666666666665</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.32300000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1958,8 +2993,16 @@
         <f t="shared" si="2"/>
         <v>1.4079999999999999</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>4.6692499999999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1984,8 +3027,16 @@
         <f t="shared" si="2"/>
         <v>1.732</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>4.7198000000000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.34639999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2010,8 +3061,16 @@
         <f t="shared" si="2"/>
         <v>1.917</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>4.7016666666666671</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.31950000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2036,8 +3095,16 @@
         <f t="shared" si="2"/>
         <v>2.4180000000000001</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>4.6562857142857146</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.34542857142857147</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2062,8 +3129,16 @@
         <f t="shared" si="2"/>
         <v>2.891</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>4.6505000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.361375</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2088,8 +3163,16 @@
         <f t="shared" si="2"/>
         <v>3.1760000000000002</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>4.4983333333333331</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.35288888888888892</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2114,8 +3197,16 @@
         <f t="shared" si="2"/>
         <v>3.4409999999999998</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>4.7115</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.34409999999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2140,8 +3231,16 @@
         <f t="shared" si="2"/>
         <v>4.13</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>4.6893636363636366</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.37545454545454543</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2166,8 +3265,16 @@
         <f t="shared" si="2"/>
         <v>4.3250000000000002</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>4.3424166666666668</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.36041666666666666</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2192,8 +3299,16 @@
         <f t="shared" si="2"/>
         <v>4.5549999999999997</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>4.7003846153846149</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.35038461538461535</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2218,8 +3333,16 @@
         <f t="shared" si="2"/>
         <v>5.5389999999999997</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>4.8091428571428576</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.39564285714285713</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2244,8 +3367,16 @@
         <f t="shared" si="2"/>
         <v>5.5019999999999998</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>4.6374000000000004</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.36679999999999996</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2270,8 +3401,16 @@
         <f t="shared" si="2"/>
         <v>6.258</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>4.7035625000000003</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.391125</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2296,8 +3435,16 @@
         <f t="shared" si="2"/>
         <v>6.5039999999999996</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>4.412588235294117</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.38258823529411762</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2322,8 +3469,16 @@
         <f t="shared" si="2"/>
         <v>6.8490000000000002</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>4.4462222222222216</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.3805</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2348,8 +3503,16 @@
         <f t="shared" si="2"/>
         <v>7.0609999999999999</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>5.0713684210526315</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.37163157894736842</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2374,8 +3537,16 @@
         <f t="shared" si="2"/>
         <v>7.5060000000000002</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>5.0762999999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.37530000000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2400,8 +3571,16 @@
         <f t="shared" si="2"/>
         <v>8.0020000000000007</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>4.7990952380952381</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.38104761904761908</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2426,8 +3605,16 @@
         <f t="shared" si="2"/>
         <v>8.4060000000000006</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>4.5198181818181817</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.38209090909090909</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2452,8 +3639,16 @@
         <f t="shared" si="2"/>
         <v>8.6639999999999997</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>4.7331304347826082</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.37669565217391304</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2478,8 +3673,16 @@
         <f t="shared" si="2"/>
         <v>9.3190000000000008</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>4.9457499999999994</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.3882916666666667</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2504,8 +3707,16 @@
         <f t="shared" si="2"/>
         <v>9.5939999999999994</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>4.7359200000000001</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0.38375999999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2530,8 +3741,16 @@
         <f t="shared" si="2"/>
         <v>9.8780000000000001</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>4.827923076923077</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0.37992307692307692</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2556,8 +3775,16 @@
         <f t="shared" si="2"/>
         <v>10.372999999999999</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>4.7280740740740743</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0.38418518518518519</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2582,8 +3809,16 @@
         <f t="shared" si="2"/>
         <v>10.246</v>
       </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>4.9772499999999997</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0.36592857142857144</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2608,8 +3843,16 @@
         <f t="shared" si="2"/>
         <v>11.49</v>
       </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>4.9493448275862075</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0.39620689655172414</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2634,8 +3877,16 @@
         <f t="shared" si="2"/>
         <v>11.743</v>
       </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>4.8756333333333339</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0.39143333333333336</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2659,6 +3910,14 @@
       <c r="G32">
         <f t="shared" si="2"/>
         <v>11.696999999999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>5.459806451612903</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0.37732258064516128</v>
       </c>
     </row>
   </sheetData>
